--- a/species_params/MesoMizer species params.xlsx
+++ b/species_params/MesoMizer species params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/katherine_baker_utas_edu_au/Documents/Desktop/PhD_Salamanca/RstudioProjects/02_MesoMizer/species_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="813" documentId="8_{83FBC545-D4DB-484A-90C5-15CB6AB9FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA696632-A729-4F7D-92E4-69E17293AA2A}"/>
+  <xr:revisionPtr revIDLastSave="820" documentId="8_{83FBC545-D4DB-484A-90C5-15CB6AB9FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A1935B-728F-491B-B596-6BB68D433661}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="825" yWindow="3015" windowWidth="21600" windowHeight="10995" firstSheet="2" activeTab="4" xr2:uid="{AC8F4A76-8BA8-430E-AB3A-4F830011832E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{AC8F4A76-8BA8-430E-AB3A-4F830011832E}"/>
   </bookViews>
   <sheets>
     <sheet name="Species params" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Parameter description" sheetId="2" r:id="rId3"/>
     <sheet name="interaction matrix" sheetId="5" r:id="rId4"/>
     <sheet name="Interaction matrix_SOTS" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="172">
   <si>
     <t>Grouping</t>
   </si>
@@ -553,6 +554,9 @@
   </si>
   <si>
     <t>*ideal migration</t>
+  </si>
+  <si>
+    <t>predator = column</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1057,7 @@
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E27" sqref="E27"/>
+      <selection pane="topRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1071,7 @@
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -4187,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64374351-29C4-4198-8E0E-A96C9B31876E}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4994,4 +4998,640 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDAF294-A978-4E95-B57C-CDEB85ED28A5}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="121.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/species_params/MesoMizer species params.xlsx
+++ b/species_params/MesoMizer species params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/katherine_baker_utas_edu_au/Documents/Desktop/PhD_Salamanca/RstudioProjects/02_MesoMizer/species_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="8_{83FBC545-D4DB-484A-90C5-15CB6AB9FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A1935B-728F-491B-B596-6BB68D433661}"/>
+  <xr:revisionPtr revIDLastSave="827" documentId="8_{83FBC545-D4DB-484A-90C5-15CB6AB9FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0CFB26-9F15-445D-98F9-E345A0815FFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{AC8F4A76-8BA8-430E-AB3A-4F830011832E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC8F4A76-8BA8-430E-AB3A-4F830011832E}"/>
   </bookViews>
   <sheets>
     <sheet name="Species params" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="173">
   <si>
     <t>Grouping</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>predator = column</t>
+  </si>
+  <si>
+    <t>Fishbase based on bathylagus antarcticus</t>
   </si>
 </sst>
 </file>
@@ -730,10 +733,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,11 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE20A8-FF39-42EE-BAEE-B6C1D4AA2AA1}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K25" sqref="K25"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1077,7 @@
     <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H1" s="20" t="s">
         <v>77</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1212,14 @@
       <c r="AF2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1339,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>26.78</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1575,8 +1580,14 @@
       <c r="Y12">
         <v>81.430000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG12">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="AH12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1922,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2368AA7B-23E6-450E-954C-5FED4164595D}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1955,7 @@
     <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G1" s="20" t="s">
         <v>77</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2072,8 +2083,14 @@
       <c r="AD2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2197,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2206,7 +2223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2304,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2319,7 +2336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2347,8 +2364,11 @@
       <c r="AE12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2408,7 +2428,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5004,7 +5024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDAF294-A978-4E95-B57C-CDEB85ED28A5}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
